--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.693432551749476</v>
+        <v>19.72450833333333</v>
       </c>
       <c r="H2">
-        <v>0.693432551749476</v>
+        <v>59.173525</v>
       </c>
       <c r="I2">
-        <v>0.05589509821868863</v>
+        <v>0.5834853563809828</v>
       </c>
       <c r="J2">
-        <v>0.05589509821868863</v>
+        <v>0.5834853563809829</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.39888466705772</v>
+        <v>10.793878</v>
       </c>
       <c r="N2">
-        <v>8.39888466705772</v>
+        <v>32.381634</v>
       </c>
       <c r="O2">
-        <v>0.135731734046895</v>
+        <v>0.166691744666625</v>
       </c>
       <c r="P2">
-        <v>0.135731734046895</v>
+        <v>0.166691744666625</v>
       </c>
       <c r="Q2">
-        <v>5.824060026527383</v>
+        <v>212.9039365599833</v>
       </c>
       <c r="R2">
-        <v>5.824060026527383</v>
+        <v>1916.13542903985</v>
       </c>
       <c r="S2">
-        <v>0.007586738605944122</v>
+        <v>0.09726219204257344</v>
       </c>
       <c r="T2">
-        <v>0.007586738605944122</v>
+        <v>0.09726219204257346</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.693432551749476</v>
+        <v>19.72450833333333</v>
       </c>
       <c r="H3">
-        <v>0.693432551749476</v>
+        <v>59.173525</v>
       </c>
       <c r="I3">
-        <v>0.05589509821868863</v>
+        <v>0.5834853563809828</v>
       </c>
       <c r="J3">
-        <v>0.05589509821868863</v>
+        <v>0.5834853563809829</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.013894290104</v>
+        <v>29.04277733333333</v>
       </c>
       <c r="N3">
-        <v>29.013894290104</v>
+        <v>87.128332</v>
       </c>
       <c r="O3">
-        <v>0.4688844221060975</v>
+        <v>0.4485126868821051</v>
       </c>
       <c r="P3">
-        <v>0.4688844221060975</v>
+        <v>0.4485126868821051</v>
       </c>
       <c r="Q3">
-        <v>20.11917875377637</v>
+        <v>572.8545035344778</v>
       </c>
       <c r="R3">
-        <v>20.11917875377637</v>
+        <v>5155.6905318103</v>
       </c>
       <c r="S3">
-        <v>0.02620834082683338</v>
+        <v>0.2617005849467972</v>
       </c>
       <c r="T3">
-        <v>0.02620834082683338</v>
+        <v>0.2617005849467973</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.693432551749476</v>
+        <v>19.72450833333333</v>
       </c>
       <c r="H4">
-        <v>0.693432551749476</v>
+        <v>59.173525</v>
       </c>
       <c r="I4">
-        <v>0.05589509821868863</v>
+        <v>0.5834853563809828</v>
       </c>
       <c r="J4">
-        <v>0.05589509821868863</v>
+        <v>0.5834853563809829</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.96841033736866</v>
+        <v>5.345855666666666</v>
       </c>
       <c r="N4">
-        <v>4.96841033736866</v>
+        <v>16.037567</v>
       </c>
       <c r="O4">
-        <v>0.08029291712893721</v>
+        <v>0.08255698348755007</v>
       </c>
       <c r="P4">
-        <v>0.08029291712893721</v>
+        <v>0.08255698348755008</v>
       </c>
       <c r="Q4">
-        <v>3.445257458380025</v>
+        <v>105.4443746459639</v>
       </c>
       <c r="R4">
-        <v>3.445257458380025</v>
+        <v>948.9993718136749</v>
       </c>
       <c r="S4">
-        <v>0.004487980489186973</v>
+        <v>0.04817079093197206</v>
       </c>
       <c r="T4">
-        <v>0.004487980489186973</v>
+        <v>0.04817079093197208</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.693432551749476</v>
+        <v>19.72450833333333</v>
       </c>
       <c r="H5">
-        <v>0.693432551749476</v>
+        <v>59.173525</v>
       </c>
       <c r="I5">
-        <v>0.05589509821868863</v>
+        <v>0.5834853563809828</v>
       </c>
       <c r="J5">
-        <v>0.05589509821868863</v>
+        <v>0.5834853563809829</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.4973737845792</v>
+        <v>19.57101366666667</v>
       </c>
       <c r="N5">
-        <v>19.4973737845792</v>
+        <v>58.713041</v>
       </c>
       <c r="O5">
-        <v>0.3150909267180702</v>
+        <v>0.3022385849637199</v>
       </c>
       <c r="P5">
-        <v>0.3150909267180702</v>
+        <v>0.3022385849637199</v>
       </c>
       <c r="Q5">
-        <v>13.52011365585409</v>
+        <v>386.0286221599472</v>
       </c>
       <c r="R5">
-        <v>13.52011365585409</v>
+        <v>3474.257599439525</v>
       </c>
       <c r="S5">
-        <v>0.01761203829672415</v>
+        <v>0.1763517884596401</v>
       </c>
       <c r="T5">
-        <v>0.01761203829672415</v>
+        <v>0.1763517884596401</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.7125310094278</v>
+        <v>0.7684289999999999</v>
       </c>
       <c r="H6">
-        <v>11.7125310094278</v>
+        <v>2.305287</v>
       </c>
       <c r="I6">
-        <v>0.9441049017813113</v>
+        <v>0.02273146997336134</v>
       </c>
       <c r="J6">
-        <v>0.9441049017813113</v>
+        <v>0.02273146997336134</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.39888466705772</v>
+        <v>10.793878</v>
       </c>
       <c r="N6">
-        <v>8.39888466705772</v>
+        <v>32.381634</v>
       </c>
       <c r="O6">
-        <v>0.135731734046895</v>
+        <v>0.166691744666625</v>
       </c>
       <c r="P6">
-        <v>0.135731734046895</v>
+        <v>0.166691744666625</v>
       </c>
       <c r="Q6">
-        <v>98.37219710752122</v>
+        <v>8.294328877661998</v>
       </c>
       <c r="R6">
-        <v>98.37219710752122</v>
+        <v>74.648959898958</v>
       </c>
       <c r="S6">
-        <v>0.1281449954409509</v>
+        <v>0.003789148388696601</v>
       </c>
       <c r="T6">
-        <v>0.1281449954409509</v>
+        <v>0.003789148388696601</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.7125310094278</v>
+        <v>0.7684289999999999</v>
       </c>
       <c r="H7">
-        <v>11.7125310094278</v>
+        <v>2.305287</v>
       </c>
       <c r="I7">
-        <v>0.9441049017813113</v>
+        <v>0.02273146997336134</v>
       </c>
       <c r="J7">
-        <v>0.9441049017813113</v>
+        <v>0.02273146997336134</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.013894290104</v>
+        <v>29.04277733333333</v>
       </c>
       <c r="N7">
-        <v>29.013894290104</v>
+        <v>87.128332</v>
       </c>
       <c r="O7">
-        <v>0.4688844221060975</v>
+        <v>0.4485126868821051</v>
       </c>
       <c r="P7">
-        <v>0.4688844221060975</v>
+        <v>0.4485126868821051</v>
       </c>
       <c r="Q7">
-        <v>339.8261365771032</v>
+        <v>22.317312343476</v>
       </c>
       <c r="R7">
-        <v>339.8261365771032</v>
+        <v>200.855811091284</v>
       </c>
       <c r="S7">
-        <v>0.4426760812792641</v>
+        <v>0.01019535267453219</v>
       </c>
       <c r="T7">
-        <v>0.4426760812792641</v>
+        <v>0.01019535267453219</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.7125310094278</v>
+        <v>0.7684289999999999</v>
       </c>
       <c r="H8">
-        <v>11.7125310094278</v>
+        <v>2.305287</v>
       </c>
       <c r="I8">
-        <v>0.9441049017813113</v>
+        <v>0.02273146997336134</v>
       </c>
       <c r="J8">
-        <v>0.9441049017813113</v>
+        <v>0.02273146997336134</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.96841033736866</v>
+        <v>5.345855666666666</v>
       </c>
       <c r="N8">
-        <v>4.96841033736866</v>
+        <v>16.037567</v>
       </c>
       <c r="O8">
-        <v>0.08029291712893721</v>
+        <v>0.08255698348755007</v>
       </c>
       <c r="P8">
-        <v>0.08029291712893721</v>
+        <v>0.08255698348755008</v>
       </c>
       <c r="Q8">
-        <v>58.19266014399206</v>
+        <v>4.107910524080999</v>
       </c>
       <c r="R8">
-        <v>58.19266014399206</v>
+        <v>36.97119471672899</v>
       </c>
       <c r="S8">
-        <v>0.07580493663975024</v>
+        <v>0.001876641591238532</v>
       </c>
       <c r="T8">
-        <v>0.07580493663975024</v>
+        <v>0.001876641591238533</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.7684289999999999</v>
+      </c>
+      <c r="H9">
+        <v>2.305287</v>
+      </c>
+      <c r="I9">
+        <v>0.02273146997336134</v>
+      </c>
+      <c r="J9">
+        <v>0.02273146997336134</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>19.57101366666667</v>
+      </c>
+      <c r="N9">
+        <v>58.713041</v>
+      </c>
+      <c r="O9">
+        <v>0.3022385849637199</v>
+      </c>
+      <c r="P9">
+        <v>0.3022385849637199</v>
+      </c>
+      <c r="Q9">
+        <v>15.038934460863</v>
+      </c>
+      <c r="R9">
+        <v>135.350410147767</v>
+      </c>
+      <c r="S9">
+        <v>0.00687032731889402</v>
+      </c>
+      <c r="T9">
+        <v>0.00687032731889402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>13.31169566666667</v>
+      </c>
+      <c r="H10">
+        <v>39.935087</v>
+      </c>
+      <c r="I10">
+        <v>0.3937831736456558</v>
+      </c>
+      <c r="J10">
+        <v>0.3937831736456558</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10.793878</v>
+      </c>
+      <c r="N10">
+        <v>32.381634</v>
+      </c>
+      <c r="O10">
+        <v>0.166691744666625</v>
+      </c>
+      <c r="P10">
+        <v>0.166691744666625</v>
+      </c>
+      <c r="Q10">
+        <v>143.6848189991287</v>
+      </c>
+      <c r="R10">
+        <v>1293.163370992158</v>
+      </c>
+      <c r="S10">
+        <v>0.06564040423535489</v>
+      </c>
+      <c r="T10">
+        <v>0.0656404042353549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>11.7125310094278</v>
-      </c>
-      <c r="H9">
-        <v>11.7125310094278</v>
-      </c>
-      <c r="I9">
-        <v>0.9441049017813113</v>
-      </c>
-      <c r="J9">
-        <v>0.9441049017813113</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>19.4973737845792</v>
-      </c>
-      <c r="N9">
-        <v>19.4973737845792</v>
-      </c>
-      <c r="O9">
-        <v>0.3150909267180702</v>
-      </c>
-      <c r="P9">
-        <v>0.3150909267180702</v>
-      </c>
-      <c r="Q9">
-        <v>228.3635950542885</v>
-      </c>
-      <c r="R9">
-        <v>228.3635950542885</v>
-      </c>
-      <c r="S9">
-        <v>0.297478888421346</v>
-      </c>
-      <c r="T9">
-        <v>0.297478888421346</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>13.31169566666667</v>
+      </c>
+      <c r="H11">
+        <v>39.935087</v>
+      </c>
+      <c r="I11">
+        <v>0.3937831736456558</v>
+      </c>
+      <c r="J11">
+        <v>0.3937831736456558</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>29.04277733333333</v>
+      </c>
+      <c r="N11">
+        <v>87.128332</v>
+      </c>
+      <c r="O11">
+        <v>0.4485126868821051</v>
+      </c>
+      <c r="P11">
+        <v>0.4485126868821051</v>
+      </c>
+      <c r="Q11">
+        <v>386.6086131760982</v>
+      </c>
+      <c r="R11">
+        <v>3479.477518584884</v>
+      </c>
+      <c r="S11">
+        <v>0.1766167492607756</v>
+      </c>
+      <c r="T11">
+        <v>0.1766167492607757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>13.31169566666667</v>
+      </c>
+      <c r="H12">
+        <v>39.935087</v>
+      </c>
+      <c r="I12">
+        <v>0.3937831736456558</v>
+      </c>
+      <c r="J12">
+        <v>0.3937831736456558</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.345855666666666</v>
+      </c>
+      <c r="N12">
+        <v>16.037567</v>
+      </c>
+      <c r="O12">
+        <v>0.08255698348755007</v>
+      </c>
+      <c r="P12">
+        <v>0.08255698348755008</v>
+      </c>
+      <c r="Q12">
+        <v>71.16240371259211</v>
+      </c>
+      <c r="R12">
+        <v>640.461633413329</v>
+      </c>
+      <c r="S12">
+        <v>0.03250955096433947</v>
+      </c>
+      <c r="T12">
+        <v>0.03250955096433947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>13.31169566666667</v>
+      </c>
+      <c r="H13">
+        <v>39.935087</v>
+      </c>
+      <c r="I13">
+        <v>0.3937831736456558</v>
+      </c>
+      <c r="J13">
+        <v>0.3937831736456558</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.57101366666667</v>
+      </c>
+      <c r="N13">
+        <v>58.713041</v>
+      </c>
+      <c r="O13">
+        <v>0.3022385849637199</v>
+      </c>
+      <c r="P13">
+        <v>0.3022385849637199</v>
+      </c>
+      <c r="Q13">
+        <v>260.5233778188408</v>
+      </c>
+      <c r="R13">
+        <v>2344.710400369567</v>
+      </c>
+      <c r="S13">
+        <v>0.1190164691851858</v>
+      </c>
+      <c r="T13">
+        <v>0.1190164691851858</v>
       </c>
     </row>
   </sheetData>
